--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H2">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I2">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J2">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>7831.511033812804</v>
+        <v>5745.421957478934</v>
       </c>
       <c r="R2">
-        <v>70483.59930431523</v>
+        <v>51708.79761731041</v>
       </c>
       <c r="S2">
-        <v>0.0140670003698191</v>
+        <v>0.01829706418398598</v>
       </c>
       <c r="T2">
-        <v>0.01406700036981909</v>
+        <v>0.01829706418398598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H3">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I3">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J3">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>8254.702735918119</v>
+        <v>6216.44573819955</v>
       </c>
       <c r="R3">
-        <v>74292.32462326306</v>
+        <v>55948.01164379596</v>
       </c>
       <c r="S3">
-        <v>0.01482713948017947</v>
+        <v>0.01979710237296706</v>
       </c>
       <c r="T3">
-        <v>0.01482713948017946</v>
+        <v>0.01979710237296706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H4">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I4">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J4">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>5333.273476210537</v>
+        <v>2679.828254797517</v>
       </c>
       <c r="R4">
-        <v>47999.46128589483</v>
+        <v>24118.45429317765</v>
       </c>
       <c r="S4">
-        <v>0.009579653228896069</v>
+        <v>0.008534271275978614</v>
       </c>
       <c r="T4">
-        <v>0.009579653228896068</v>
+        <v>0.008534271275978618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H5">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I5">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J5">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>2857.52032504081</v>
+        <v>2104.395243550483</v>
       </c>
       <c r="R5">
-        <v>25717.68292536729</v>
+        <v>18939.55719195435</v>
       </c>
       <c r="S5">
-        <v>0.005132692694368167</v>
+        <v>0.006701727936552375</v>
       </c>
       <c r="T5">
-        <v>0.005132692694368165</v>
+        <v>0.006701727936552377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.837127</v>
+        <v>36.02515</v>
       </c>
       <c r="H6">
-        <v>143.511381</v>
+        <v>108.07545</v>
       </c>
       <c r="I6">
-        <v>0.05107837591710958</v>
+        <v>0.06133193329924569</v>
       </c>
       <c r="J6">
-        <v>0.05107837591710957</v>
+        <v>0.0613319332992457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>4159.820044543423</v>
+        <v>2512.6178933324</v>
       </c>
       <c r="R6">
-        <v>37438.3804008908</v>
+        <v>22613.5610399916</v>
       </c>
       <c r="S6">
-        <v>0.007471890143846787</v>
+        <v>0.008001767529761651</v>
       </c>
       <c r="T6">
-        <v>0.007471890143846784</v>
+        <v>0.008001767529761655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>255.905248</v>
       </c>
       <c r="H7">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I7">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J7">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>41894.75620729903</v>
+        <v>40812.69976372873</v>
       </c>
       <c r="R7">
-        <v>377052.8058656913</v>
+        <v>367314.2978735585</v>
       </c>
       <c r="S7">
-        <v>0.07525157642210932</v>
+        <v>0.1299734976169384</v>
       </c>
       <c r="T7">
-        <v>0.07525157642210929</v>
+        <v>0.1299734976169384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>255.905248</v>
       </c>
       <c r="H8">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I8">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J8">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>44158.62496929226</v>
+        <v>44158.62496929225</v>
       </c>
       <c r="R8">
         <v>397427.6247236303</v>
       </c>
       <c r="S8">
-        <v>0.07931794912779602</v>
+        <v>0.1406290436663143</v>
       </c>
       <c r="T8">
-        <v>0.07931794912779599</v>
+        <v>0.1406290436663143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>255.905248</v>
       </c>
       <c r="H9">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I9">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J9">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>28530.40634278642</v>
+        <v>19036.20426677934</v>
       </c>
       <c r="R9">
-        <v>256773.6570850778</v>
+        <v>171325.838401014</v>
       </c>
       <c r="S9">
-        <v>0.05124646250797314</v>
+        <v>0.06062333695705871</v>
       </c>
       <c r="T9">
-        <v>0.05124646250797314</v>
+        <v>0.06062333695705873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>255.905248</v>
       </c>
       <c r="H10">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I10">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J10">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>15286.33706293877</v>
+        <v>14948.60636779602</v>
       </c>
       <c r="R10">
-        <v>137577.033566449</v>
+        <v>134537.4573101642</v>
       </c>
       <c r="S10">
-        <v>0.02745739719820704</v>
+        <v>0.04760583507999171</v>
       </c>
       <c r="T10">
-        <v>0.02745739719820703</v>
+        <v>0.04760583507999173</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>255.905248</v>
       </c>
       <c r="H11">
-        <v>767.7157440000001</v>
+        <v>767.715744</v>
       </c>
       <c r="I11">
-        <v>0.2732443454747012</v>
+        <v>0.4356724011215199</v>
       </c>
       <c r="J11">
-        <v>0.2732443454747012</v>
+        <v>0.43567240112152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>22253.00403459129</v>
+        <v>17848.42270254157</v>
       </c>
       <c r="R11">
-        <v>200277.0363113216</v>
+        <v>160635.8043228741</v>
       </c>
       <c r="S11">
-        <v>0.03997096021861572</v>
+        <v>0.05684068780121673</v>
       </c>
       <c r="T11">
-        <v>0.0399709602186157</v>
+        <v>0.05684068780121674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H12">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I12">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J12">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>48419.94131509258</v>
+        <v>12537.61960626553</v>
       </c>
       <c r="R12">
-        <v>435779.4718358333</v>
+        <v>112838.5764563898</v>
       </c>
       <c r="S12">
-        <v>0.08697214744961149</v>
+        <v>0.03992772547395316</v>
       </c>
       <c r="T12">
-        <v>0.08697214744961147</v>
+        <v>0.03992772547395317</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H13">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I13">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J13">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>51036.41178835161</v>
+        <v>13565.48440573301</v>
       </c>
       <c r="R13">
-        <v>459327.7060951645</v>
+        <v>122089.3596515971</v>
       </c>
       <c r="S13">
-        <v>0.09167186516130785</v>
+        <v>0.04320109831714963</v>
       </c>
       <c r="T13">
-        <v>0.09167186516130783</v>
+        <v>0.04320109831714964</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H14">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I14">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J14">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>32974.06945103037</v>
+        <v>5847.902472165271</v>
       </c>
       <c r="R14">
-        <v>296766.6250592733</v>
+        <v>52631.12224948745</v>
       </c>
       <c r="S14">
-        <v>0.05922819302168043</v>
+        <v>0.01862342708103708</v>
       </c>
       <c r="T14">
-        <v>0.05922819302168043</v>
+        <v>0.01862342708103708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H15">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I15">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J15">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>17667.21209327067</v>
+        <v>4592.196580187768</v>
       </c>
       <c r="R15">
-        <v>159004.9088394361</v>
+        <v>41329.76922168991</v>
       </c>
       <c r="S15">
-        <v>0.03173393716444983</v>
+        <v>0.01462446382441956</v>
       </c>
       <c r="T15">
-        <v>0.03173393716444983</v>
+        <v>0.01462446382441957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>295.7629596666666</v>
+        <v>78.61383033333333</v>
       </c>
       <c r="H16">
-        <v>887.288879</v>
+        <v>235.841491</v>
       </c>
       <c r="I16">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274765</v>
       </c>
       <c r="J16">
-        <v>0.315802653370277</v>
+        <v>0.1338381158274766</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>25718.95022154838</v>
+        <v>5483.017191016019</v>
       </c>
       <c r="R16">
-        <v>231470.5519939354</v>
+        <v>49347.15471914417</v>
       </c>
       <c r="S16">
-        <v>0.04619651057322738</v>
+        <v>0.0174614011309171</v>
       </c>
       <c r="T16">
-        <v>0.04619651057322737</v>
+        <v>0.0174614011309171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H17">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I17">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J17">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>30580.91219910493</v>
+        <v>19255.86623409583</v>
       </c>
       <c r="R17">
-        <v>275228.2097919444</v>
+        <v>173302.7961068625</v>
       </c>
       <c r="S17">
-        <v>0.05492959166588554</v>
+        <v>0.06132287985304021</v>
       </c>
       <c r="T17">
-        <v>0.05492959166588553</v>
+        <v>0.06132287985304021</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H18">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I18">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J18">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>32233.41428070791</v>
+        <v>20834.50936627304</v>
       </c>
       <c r="R18">
-        <v>290100.7285263712</v>
+        <v>187510.5842964574</v>
       </c>
       <c r="S18">
-        <v>0.05789782439807117</v>
+        <v>0.06635027991639944</v>
       </c>
       <c r="T18">
-        <v>0.05789782439807115</v>
+        <v>0.06635027991639944</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H19">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I19">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J19">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>20825.65768031682</v>
+        <v>8981.483829496548</v>
       </c>
       <c r="R19">
-        <v>187430.9191228514</v>
+        <v>80833.35446546895</v>
       </c>
       <c r="S19">
-        <v>0.0374071533610694</v>
+        <v>0.02860273576282984</v>
       </c>
       <c r="T19">
-        <v>0.0374071533610694</v>
+        <v>0.02860273576282985</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H20">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I20">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J20">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>11158.20150031593</v>
+        <v>7052.911624833292</v>
       </c>
       <c r="R20">
-        <v>100423.8135028434</v>
+        <v>63476.20462349963</v>
       </c>
       <c r="S20">
-        <v>0.02004241888363176</v>
+        <v>0.02246093979495652</v>
       </c>
       <c r="T20">
-        <v>0.02004241888363175</v>
+        <v>0.02246093979495652</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>186.7970273333333</v>
+        <v>120.7388203333334</v>
       </c>
       <c r="H21">
-        <v>560.391082</v>
+        <v>362.216461</v>
       </c>
       <c r="I21">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="J21">
-        <v>0.1994536332069146</v>
+        <v>0.2055548769488429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>16243.49260277118</v>
+        <v>8421.075842553861</v>
       </c>
       <c r="R21">
-        <v>146191.4334249407</v>
+        <v>75789.68258298474</v>
       </c>
       <c r="S21">
-        <v>0.02917664489825679</v>
+        <v>0.02681804162161691</v>
       </c>
       <c r="T21">
-        <v>0.02917664489825678</v>
+        <v>0.02681804162161692</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H22">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I22">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J22">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>24596.29435330424</v>
+        <v>15325.88878354612</v>
       </c>
       <c r="R22">
-        <v>221366.6491797382</v>
+        <v>137932.9990519151</v>
       </c>
       <c r="S22">
-        <v>0.04417999033267793</v>
+        <v>0.04880734136230799</v>
       </c>
       <c r="T22">
-        <v>0.04417999033267792</v>
+        <v>0.048807341362308</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H23">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I23">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J23">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>25925.40538027173</v>
+        <v>16582.34272742619</v>
       </c>
       <c r="R23">
-        <v>233328.6484224456</v>
+        <v>149241.0845468357</v>
       </c>
       <c r="S23">
-        <v>0.04656734639042453</v>
+        <v>0.05280868689019741</v>
       </c>
       <c r="T23">
-        <v>0.04656734639042451</v>
+        <v>0.05280868689019742</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H24">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I24">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J24">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>16750.12187573712</v>
+        <v>7148.430541044699</v>
       </c>
       <c r="R24">
-        <v>150751.0968816341</v>
+        <v>64335.87486940229</v>
       </c>
       <c r="S24">
-        <v>0.03008665500223328</v>
+        <v>0.02276513255114388</v>
       </c>
       <c r="T24">
-        <v>0.03008665500223328</v>
+        <v>0.02276513255114389</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H25">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I25">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J25">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>8974.565793471802</v>
+        <v>5613.465416111939</v>
       </c>
       <c r="R25">
-        <v>80771.0921412462</v>
+        <v>50521.18874500745</v>
       </c>
       <c r="S25">
-        <v>0.0161201612039702</v>
+        <v>0.01787683094006456</v>
       </c>
       <c r="T25">
-        <v>0.01612016120397019</v>
+        <v>0.01787683094006457</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>150.2412563333334</v>
+        <v>96.09693533333332</v>
       </c>
       <c r="H26">
-        <v>450.7237690000001</v>
+        <v>288.290806</v>
       </c>
       <c r="I26">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="J26">
-        <v>0.1604209920309976</v>
+        <v>0.1636026728029148</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>13064.67651397181</v>
+        <v>6702.397608696698</v>
       </c>
       <c r="R26">
-        <v>117582.0886257463</v>
+        <v>60321.57847827028</v>
       </c>
       <c r="S26">
-        <v>0.0234668391016917</v>
+        <v>0.02134468105920091</v>
       </c>
       <c r="T26">
-        <v>0.0234668391016917</v>
+        <v>0.02134468105920092</v>
       </c>
     </row>
   </sheetData>
